--- a/output/MUTÁ_17489083000127.xlsx
+++ b/output/MUTÁ_17489083000127.xlsx
@@ -867,10 +867,10 @@
         <v>44165</v>
       </c>
       <c r="B44">
-        <v>0.5815352</v>
+        <v>0.5784081999999999</v>
       </c>
       <c r="C44">
-        <v>0.02885290820936737</v>
+        <v>0.02681866765375363</v>
       </c>
     </row>
   </sheetData>

--- a/output/MUTÁ_17489083000127.xlsx
+++ b/output/MUTÁ_17489083000127.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MUTÁ FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42886</v>
       </c>
@@ -411,466 +405,340 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42916</v>
       </c>
       <c r="B3">
         <v>0.02788909999999989</v>
       </c>
-      <c r="C3">
-        <v>0.02788909999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42947</v>
       </c>
       <c r="B4">
-        <v>0.1281273999999999</v>
-      </c>
-      <c r="C4">
         <v>0.09751859417518882</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42978</v>
       </c>
       <c r="B5">
-        <v>0.1611682999999999</v>
-      </c>
-      <c r="C5">
         <v>0.02928827010140878</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43008</v>
       </c>
       <c r="B6">
-        <v>0.2367888</v>
-      </c>
-      <c r="C6">
         <v>0.06512449573416723</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43039</v>
       </c>
       <c r="B7">
-        <v>0.2233921000000001</v>
-      </c>
-      <c r="C7">
         <v>-0.01083184129739845</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43069</v>
       </c>
       <c r="B8">
-        <v>0.2268584</v>
-      </c>
-      <c r="C8">
         <v>0.002833351629457193</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43100</v>
       </c>
       <c r="B9">
-        <v>0.2564120000000001</v>
-      </c>
-      <c r="C9">
         <v>0.02408884350467844</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43131</v>
       </c>
       <c r="B10">
-        <v>0.2918574</v>
-      </c>
-      <c r="C10">
         <v>0.02821160574715931</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43159</v>
       </c>
       <c r="B11">
-        <v>0.3353843999999999</v>
-      </c>
-      <c r="C11">
         <v>0.03369334726882389</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43190</v>
       </c>
       <c r="B12">
-        <v>0.393219</v>
-      </c>
-      <c r="C12">
         <v>0.0433093272618732</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43220</v>
       </c>
       <c r="B13">
-        <v>0.4079853</v>
-      </c>
-      <c r="C13">
         <v>0.01059869266784341</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43251</v>
       </c>
       <c r="B14">
-        <v>0.3887655000000001</v>
-      </c>
-      <c r="C14">
         <v>-0.01365056865295389</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43281</v>
       </c>
       <c r="B15">
-        <v>0.3941671</v>
-      </c>
-      <c r="C15">
         <v>0.003889497542961751</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43312</v>
       </c>
       <c r="B16">
-        <v>0.4127552999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01333283506690108</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43343</v>
       </c>
       <c r="B17">
-        <v>0.419697</v>
-      </c>
-      <c r="C17">
         <v>0.004913589777366223</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43373</v>
       </c>
       <c r="B18">
-        <v>0.4271452</v>
-      </c>
-      <c r="C18">
         <v>0.005246330731134785</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43404</v>
       </c>
       <c r="B19">
-        <v>0.4410847</v>
-      </c>
-      <c r="C19">
         <v>0.009767401382844598</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43434</v>
       </c>
       <c r="B20">
-        <v>0.4316608</v>
-      </c>
-      <c r="C20">
         <v>-0.006539449069163039</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43465</v>
       </c>
       <c r="B21">
-        <v>0.4526025</v>
-      </c>
-      <c r="C21">
         <v>0.01462755703026875</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43496</v>
       </c>
       <c r="B22">
-        <v>0.5119198</v>
-      </c>
-      <c r="C22">
         <v>0.04083519063198637</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43524</v>
       </c>
       <c r="B23">
-        <v>0.5252760999999999</v>
-      </c>
-      <c r="C23">
         <v>0.008834000321974678</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43555</v>
       </c>
       <c r="B24">
-        <v>0.5364218999999999</v>
-      </c>
-      <c r="C24">
         <v>0.007307398313000535</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43585</v>
       </c>
       <c r="B25">
-        <v>0.5407223999999999</v>
-      </c>
-      <c r="C25">
         <v>0.00279903586378194</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43616</v>
       </c>
       <c r="B26">
-        <v>0.5572007000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01069517779452034</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43646</v>
       </c>
       <c r="B27">
-        <v>0.5934394000000001</v>
-      </c>
-      <c r="C27">
         <v>0.02327169516427774</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43677</v>
       </c>
       <c r="B28">
-        <v>0.6035362</v>
-      </c>
-      <c r="C28">
         <v>0.006336481952184725</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43708</v>
       </c>
       <c r="B29">
-        <v>0.6205693999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01062227344789601</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43738</v>
       </c>
       <c r="B30">
-        <v>0.6356166999999999</v>
-      </c>
-      <c r="C30">
         <v>0.009285193216655774</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43769</v>
       </c>
       <c r="B31">
-        <v>0.6813823999999999</v>
-      </c>
-      <c r="C31">
         <v>0.02798069987913432</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43799</v>
       </c>
       <c r="B32">
-        <v>0.6404752</v>
-      </c>
-      <c r="C32">
         <v>-0.02432950410329016</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43830</v>
       </c>
       <c r="B33">
-        <v>0.6913414</v>
-      </c>
-      <c r="C33">
         <v>0.03100699114500483</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43861</v>
       </c>
       <c r="B34">
-        <v>0.6821942999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.005408192574249071</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43890</v>
       </c>
       <c r="B35">
-        <v>0.647656</v>
-      </c>
-      <c r="C35">
         <v>-0.02053169482264916</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43921</v>
       </c>
       <c r="B36">
-        <v>0.4322588000000001</v>
-      </c>
-      <c r="C36">
         <v>-0.1307294726569138</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43951</v>
       </c>
       <c r="B37">
-        <v>0.4315036999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.0005272091887305042</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43982</v>
       </c>
       <c r="B38">
-        <v>0.4553933999999999</v>
-      </c>
-      <c r="C38">
         <v>0.01668853527937086</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44012</v>
       </c>
       <c r="B39">
-        <v>0.4847614</v>
-      </c>
-      <c r="C39">
         <v>0.02017873655329216</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44043</v>
       </c>
       <c r="B40">
-        <v>0.5334992000000001</v>
-      </c>
-      <c r="C40">
         <v>0.03282534149931426</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44074</v>
       </c>
       <c r="B41">
-        <v>0.5462946</v>
-      </c>
-      <c r="C41">
         <v>0.008343923492102112</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44104</v>
       </c>
       <c r="B42">
-        <v>0.5261323</v>
-      </c>
-      <c r="C42">
         <v>-0.01303910651954676</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44135</v>
       </c>
       <c r="B43">
-        <v>0.537183</v>
-      </c>
-      <c r="C43">
         <v>0.0072409842842589</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44165</v>
       </c>
       <c r="B44">
-        <v>0.5784081999999999</v>
-      </c>
-      <c r="C44">
-        <v>0.02681866765375363</v>
+        <v>0.01987778943691154</v>
       </c>
     </row>
   </sheetData>
